--- a/src/test/java/excel/export/export2.xlsx
+++ b/src/test/java/excel/export/export2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="50">
   <si>
     <t>平均分</t>
   </si>
@@ -74,9 +74,6 @@
     <t>李四0</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -161,10 +158,10 @@
     <t>李四9</t>
   </si>
   <si>
-    <t>导出参考代码！</t>
-  </si>
-  <si>
-    <t>注释:</t>
+    <t>=SUM(H4:H13)</t>
+  </si>
+  <si>
+    <t>合计:</t>
   </si>
 </sst>
 </file>
@@ -259,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -335,24 +332,32 @@
         <color indexed="8"/>
       </bottom>
     </border>
-    <border/>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin"/>
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left>
         <color indexed="8"/>
       </left>
+      <right/>
       <top style="thin"/>
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left>
@@ -365,6 +370,7 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left>
@@ -379,6 +385,7 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thin"/>
@@ -571,26 +578,37 @@
     </border>
     <border>
       <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
-      <top style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
+      <right/>
       <top style="thin"/>
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
+      <right/>
       <top style="thin"/>
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -603,6 +621,7 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -617,6 +636,7 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -660,11 +680,16 @@
     <border>
       <left style="thin"/>
       <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -673,6 +698,7 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -683,6 +709,7 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -695,6 +722,7 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -709,6 +737,7 @@
       <bottom>
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -858,39 +887,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true">
       <alignment wrapText="false" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="56" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -922,11 +951,11 @@
     <xf numFmtId="164" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment wrapText="false" horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="62" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="61" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="66" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="65" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1316,6 +1345,386 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>10</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10" y="10"/>
+          <a:ext cx="800100" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>10</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>10</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10" y="10"/>
+          <a:ext cx="800100" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>10</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10" y="10"/>
+          <a:ext cx="800100" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>10</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10" y="10"/>
+          <a:ext cx="800100" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>10</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>10</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10" y="10"/>
+          <a:ext cx="800100" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>10</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>10</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10" y="10"/>
+          <a:ext cx="800100" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>10</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>10</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10" y="10"/>
+          <a:ext cx="800100" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>10</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>10</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10" y="10"/>
+          <a:ext cx="800100" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>10</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>10</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10" y="10"/>
+          <a:ext cx="800100" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>10</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>10</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10" y="10"/>
+          <a:ext cx="800100" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1324,7 +1733,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane ySplit="3.0" state="frozen" topLeftCell="A4" activePane="bottomLeft"/>
@@ -1436,24 +1845,24 @@
         <v>19</v>
       </c>
       <c r="H4" s="16" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="I4" s="17" t="s">
+        <v>95.820627368156</v>
+      </c>
+      <c r="I4" s="17" t="n">
+        <v>41.61763824861067</v>
+      </c>
+      <c r="J4" s="22" t="n">
+        <v>44127.72225704861</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J4" s="22" t="n">
-        <v>44029.773285972224</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>15</v>
@@ -1465,30 +1874,30 @@
         <v>17</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H5" s="16" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="I5" s="17" t="s">
+        <v>42.22431232242213</v>
+      </c>
+      <c r="I5" s="17" t="n">
+        <v>29.674353755442127</v>
+      </c>
+      <c r="J5" s="22" t="n">
+        <v>44127.72225704861</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J5" s="22" t="n">
-        <v>44029.77328599537</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>15</v>
@@ -1500,30 +1909,30 @@
         <v>17</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H6" s="16" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="I6" s="17" t="s">
+        <v>47.94408053842669</v>
+      </c>
+      <c r="I6" s="17" t="n">
+        <v>55.980096527448694</v>
+      </c>
+      <c r="J6" s="22" t="n">
+        <v>44127.722257141206</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J6" s="22" t="n">
-        <v>44029.773286006945</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
@@ -1535,30 +1944,30 @@
         <v>17</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H7" s="16" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="I7" s="17" t="s">
+        <v>39.199087823726266</v>
+      </c>
+      <c r="I7" s="17" t="n">
+        <v>32.623905707807246</v>
+      </c>
+      <c r="J7" s="22" t="n">
+        <v>44127.722257141206</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J7" s="22" t="n">
-        <v>44029.77328601852</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>15</v>
@@ -1570,30 +1979,30 @@
         <v>17</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H8" s="16" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="I8" s="17" t="s">
+        <v>56.73943848597271</v>
+      </c>
+      <c r="I8" s="17" t="n">
+        <v>87.38916287168321</v>
+      </c>
+      <c r="J8" s="22" t="n">
+        <v>44127.722257152775</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J8" s="22" t="n">
-        <v>44029.77328603009</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>15</v>
@@ -1605,30 +2014,30 @@
         <v>17</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H9" s="16" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="I9" s="17" t="s">
+        <v>55.73657605356727</v>
+      </c>
+      <c r="I9" s="17" t="n">
+        <v>37.789654681713664</v>
+      </c>
+      <c r="J9" s="22" t="n">
+        <v>44127.722257152775</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J9" s="22" t="n">
-        <v>44029.77328605324</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>15</v>
@@ -1640,30 +2049,30 @@
         <v>17</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H10" s="16" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="I10" s="17" t="s">
+        <v>77.87217095693083</v>
+      </c>
+      <c r="I10" s="17" t="n">
+        <v>71.78469547392268</v>
+      </c>
+      <c r="J10" s="22" t="n">
+        <v>44127.72225716435</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J10" s="22" t="n">
-        <v>44029.77328606482</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>15</v>
@@ -1675,30 +2084,30 @@
         <v>17</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H11" s="16" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="I11" s="17" t="s">
+        <v>35.54662056213166</v>
+      </c>
+      <c r="I11" s="17" t="n">
+        <v>33.49928466312603</v>
+      </c>
+      <c r="J11" s="22" t="n">
+        <v>44127.72225716435</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J11" s="22" t="n">
-        <v>44029.77328608796</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>15</v>
@@ -1710,30 +2119,30 @@
         <v>17</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H12" s="16" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="I12" s="17" t="s">
+        <v>34.498706487995825</v>
+      </c>
+      <c r="I12" s="17" t="n">
+        <v>45.00375868880676</v>
+      </c>
+      <c r="J12" s="22" t="n">
+        <v>44127.72225717593</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J12" s="22" t="n">
-        <v>44029.77328609954</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>15</v>
@@ -1745,56 +2154,407 @@
         <v>17</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H13" s="16" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="I13" s="17" t="s">
+        <v>38.46876237328003</v>
+      </c>
+      <c r="I13" s="17" t="n">
+        <v>39.24458129517574</v>
+      </c>
+      <c r="J13" s="22" t="n">
+        <v>44127.72225717593</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J13" s="22" t="n">
-        <v>44029.773286111114</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="23"/>
+      <c r="A14" s="3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="23"/>
+        <v>16</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="16" t="n">
+        <v>2.240736530881888</v>
+      </c>
+      <c r="I14" s="17" t="n">
+        <v>71.10455121426757</v>
+      </c>
+      <c r="J14" s="22" t="n">
+        <v>44127.72225717593</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="24"/>
+      <c r="A15" s="3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="16" t="n">
+        <v>98.68285650318968</v>
+      </c>
+      <c r="I15" s="17" t="n">
+        <v>91.43278658937793</v>
+      </c>
+      <c r="J15" s="22" t="n">
+        <v>44127.72225717593</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="16" t="n">
+        <v>96.221456382618</v>
+      </c>
+      <c r="I16" s="17" t="n">
+        <v>5.353293106932106</v>
+      </c>
+      <c r="J16" s="22" t="n">
+        <v>44127.7222571875</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="16" t="n">
+        <v>23.641388926606286</v>
+      </c>
+      <c r="I17" s="17" t="n">
+        <v>46.965888677058445</v>
+      </c>
+      <c r="J17" s="22" t="n">
+        <v>44127.7222571875</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="16" t="n">
+        <v>34.31700137001252</v>
+      </c>
+      <c r="I18" s="17" t="n">
+        <v>50.93118462615205</v>
+      </c>
+      <c r="J18" s="22" t="n">
+        <v>44127.72225719907</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="16" t="n">
+        <v>4.909365924837486</v>
+      </c>
+      <c r="I19" s="17" t="n">
+        <v>95.06824958927191</v>
+      </c>
+      <c r="J19" s="22" t="n">
+        <v>44127.72225719907</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="16" t="n">
+        <v>30.274734849028363</v>
+      </c>
+      <c r="I20" s="17" t="n">
+        <v>60.695793640549994</v>
+      </c>
+      <c r="J20" s="22" t="n">
+        <v>44127.72225721065</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="16" t="n">
+        <v>30.290298296993956</v>
+      </c>
+      <c r="I21" s="17" t="n">
+        <v>24.38575561831147</v>
+      </c>
+      <c r="J21" s="22" t="n">
+        <v>44127.72225721065</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="16" t="n">
+        <v>46.24298837347591</v>
+      </c>
+      <c r="I22" s="17" t="n">
+        <v>11.857322084330082</v>
+      </c>
+      <c r="J22" s="22" t="n">
+        <v>44127.72225721065</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="16" t="n">
+        <v>85.26924750888628</v>
+      </c>
+      <c r="I23" s="17" t="n">
+        <v>12.282002533678083</v>
+      </c>
+      <c r="J23" s="22" t="n">
+        <v>44127.72225721065</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="3" t="s">
+        <f>SUM(H4:H13)</f>
+        <v>48</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="23"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="24"/>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="20">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="J2:J3"/>
@@ -1803,8 +2563,18 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="D14:K15"/>
-    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D24:K25"/>
+    <mergeCell ref="A24:C25"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" sqref="D4:D65536" allowBlank="true" errorStyle="stop" showDropDown="false" showErrorMessage="true" showInputMessage="true" promptTitle="提示" prompt="只能选择下拉框里面的数据">
